--- a/cod_modern_warfare.xlsx
+++ b/cod_modern_warfare.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Maps" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Seasons" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Maps" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Seasons" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="News" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -415,24 +418,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6362,7 +6347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19071,4 +19056,123 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2020 Call of Duty League Playoffs &amp; Championship Weekend Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Roze Blooms in the Store with her Featured Bundle</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Modern Warfare® Weapon Detail: Rytec AMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This Week in Call of Duty® - July 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>After Action Report: Sublime Subliners Win First Home Series</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Celebrate Champs with Weapon Blueprints, Calling Cards, Emblems, Sprays, and Stickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rep Your Favorite Team with this Collection of Calling Cards, Sprays, and Emblems</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Rank Up Report #35: Rolling Past the First 50 Officer Challenges of Season Four </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tournament Takedown: Who to Watch in the New York Subliners Home Series</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Call of Duty®: Mobile Opens the Forge – New Season is Live Now</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/cod_modern_warfare.xlsx
+++ b/cod_modern_warfare.xlsx
@@ -19074,101 +19074,101 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>43996</v>
+        <v>44002</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2020 Call of Duty League Playoffs &amp; Championship Weekend Details</t>
+          <t>After Action Report: Empire Establish Order in Decisive Three-Peat Victory</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43996</v>
+        <v>43999</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roze Blooms in the Store with her Featured Bundle</t>
+          <t>The Rank Up Report #36: Origins of a Secret Yegor Skin Hidden in Plain Sight</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modern Warfare® Weapon Detail: Rytec AMR</t>
+          <t>Tournament Takedown: Who to Watch in the London Royal Ravens Home Series</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This Week in Call of Duty® - July 13</t>
+          <t>Royal Ravens Running Out of Time to Make Their Mark</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>After Action Report: Sublime Subliners Win First Home Series</t>
+          <t>Earn Rewards to equip in Modern Warfare® Multiplayer, Special Ops, and Warzone™ by Watching Twitch - [Updated - Date Extended]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43992</v>
+        <v>43998</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Celebrate Champs with Weapon Blueprints, Calling Cards, Emblems, Sprays, and Stickers</t>
+          <t>Call of Duty®: Warzone™ Spotter Scope</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43992</v>
+        <v>43998</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rep Your Favorite Team with this Collection of Calling Cards, Sprays, and Emblems</t>
+          <t>Call of Duty® Mobile: The Scavenger’s Guide to Solstice Awakened</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Rank Up Report #35: Rolling Past the First 50 Officer Challenges of Season Four </t>
+          <t>2020 Call of Duty League Playoffs &amp; Championship Weekend Details</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43991</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tournament Takedown: Who to Watch in the New York Subliners Home Series</t>
+          <t>Designed for Engagement Season Four Part Two: Hedgerow, Muckrake, and Brookside</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43991</v>
+        <v>43997</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Call of Duty®: Mobile Opens the Forge – New Season is Live Now</t>
+          <t>Call of Duty®: Mobile Weapon Focus: DR-H</t>
         </is>
       </c>
     </row>
